--- a/data/melon_song_data/artist_df.xlsx
+++ b/data/melon_song_data/artist_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3421"/>
+  <dimension ref="A1:E3460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72275,6 +72275,825 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3422">
+      <c r="A3422" s="1" t="n">
+        <v>3420</v>
+      </c>
+      <c r="B3422" t="n">
+        <v>104369</v>
+      </c>
+      <c r="C3422" t="inlineStr">
+        <is>
+          <t>Oasis</t>
+        </is>
+      </c>
+      <c r="D3422" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/001/04/369/104369_500.jpg/melon/resize/416/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E3422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3423">
+      <c r="A3423" s="1" t="n">
+        <v>3421</v>
+      </c>
+      <c r="B3423" t="n">
+        <v>52282</v>
+      </c>
+      <c r="C3423" t="inlineStr">
+        <is>
+          <t>Liam Gallagher</t>
+        </is>
+      </c>
+      <c r="D3423" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/000/52/282/52282_20220531180915_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3424">
+      <c r="A3424" s="1" t="n">
+        <v>3422</v>
+      </c>
+      <c r="B3424" t="n">
+        <v>52290</v>
+      </c>
+      <c r="C3424" t="inlineStr">
+        <is>
+          <t>Gem Archer</t>
+        </is>
+      </c>
+      <c r="D3424" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/000/52/290/52290_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" s="1" t="n">
+        <v>3423</v>
+      </c>
+      <c r="B3425" t="n">
+        <v>52291</v>
+      </c>
+      <c r="C3425" t="inlineStr">
+        <is>
+          <t>Andy Bell</t>
+        </is>
+      </c>
+      <c r="D3425" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/000/52/291/52291_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3426">
+      <c r="A3426" s="1" t="n">
+        <v>3424</v>
+      </c>
+      <c r="B3426" t="n">
+        <v>29719</v>
+      </c>
+      <c r="C3426" t="inlineStr">
+        <is>
+          <t>Noel Gallagher</t>
+        </is>
+      </c>
+      <c r="D3426" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/000/29/719/29719_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" s="1" t="n">
+        <v>3425</v>
+      </c>
+      <c r="B3427" t="n">
+        <v>2736779</v>
+      </c>
+      <c r="C3427" t="inlineStr">
+        <is>
+          <t>LUCY</t>
+        </is>
+      </c>
+      <c r="D3427" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/027/36/779/2736779_20230223134900_500.jpg?d49808fcb5286396119d9c2a74b42c09/melon/resize/416/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E3427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" s="1" t="n">
+        <v>3426</v>
+      </c>
+      <c r="B3428" t="n">
+        <v>2112526</v>
+      </c>
+      <c r="C3428" t="inlineStr">
+        <is>
+          <t>신예찬</t>
+        </is>
+      </c>
+      <c r="D3428" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/021/12/526/2112526_20230223135001_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" s="1" t="n">
+        <v>3427</v>
+      </c>
+      <c r="B3429" t="n">
+        <v>967268</v>
+      </c>
+      <c r="C3429" t="inlineStr">
+        <is>
+          <t>최상엽</t>
+        </is>
+      </c>
+      <c r="D3429" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/009/67/268/967268_20230223135050_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" s="1" t="n">
+        <v>3428</v>
+      </c>
+      <c r="B3430" t="n">
+        <v>2643836</v>
+      </c>
+      <c r="C3430" t="inlineStr">
+        <is>
+          <t>조원상</t>
+        </is>
+      </c>
+      <c r="D3430" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/026/43/836/2643836_20230223135139_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3431">
+      <c r="A3431" s="1" t="n">
+        <v>3429</v>
+      </c>
+      <c r="B3431" t="n">
+        <v>2642065</v>
+      </c>
+      <c r="C3431" t="inlineStr">
+        <is>
+          <t>신광일</t>
+        </is>
+      </c>
+      <c r="D3431" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/026/42/065/2642065_20230223135227_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" s="1" t="n">
+        <v>3430</v>
+      </c>
+      <c r="B3432" t="n">
+        <v>3785</v>
+      </c>
+      <c r="C3432" t="inlineStr">
+        <is>
+          <t>유재하</t>
+        </is>
+      </c>
+      <c r="D3432" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/000/03/785/3785_500.jpg/melon/resize/416/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E3432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" s="1" t="n">
+        <v>3431</v>
+      </c>
+      <c r="B3433" t="n">
+        <v>102747</v>
+      </c>
+      <c r="C3433" t="inlineStr">
+        <is>
+          <t>B612</t>
+        </is>
+      </c>
+      <c r="D3433" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/001/02/747/102747_500.jpg/melon/resize/416/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E3433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" s="1" t="n">
+        <v>3432</v>
+      </c>
+      <c r="B3434" t="n">
+        <v>100757</v>
+      </c>
+      <c r="C3434" t="inlineStr">
+        <is>
+          <t>자전거 탄 풍경</t>
+        </is>
+      </c>
+      <c r="D3434" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/001/00/757/100757_20200630162210_500.jpg?e004bcdac3bf847972e6945640e4db16/melon/resize/416/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E3434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3435">
+      <c r="A3435" s="1" t="n">
+        <v>3433</v>
+      </c>
+      <c r="B3435" t="n">
+        <v>4059</v>
+      </c>
+      <c r="C3435" t="inlineStr">
+        <is>
+          <t>강인봉</t>
+        </is>
+      </c>
+      <c r="D3435" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/000/04/059/4059_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3436">
+      <c r="A3436" s="1" t="n">
+        <v>3434</v>
+      </c>
+      <c r="B3436" t="n">
+        <v>4060</v>
+      </c>
+      <c r="C3436" t="inlineStr">
+        <is>
+          <t>김형섭</t>
+        </is>
+      </c>
+      <c r="D3436" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/000/04/060/4060_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3437">
+      <c r="A3437" s="1" t="n">
+        <v>3435</v>
+      </c>
+      <c r="B3437" t="n">
+        <v>261071</v>
+      </c>
+      <c r="C3437" t="inlineStr">
+        <is>
+          <t>송봉주 (자전거 탄 풍경)</t>
+        </is>
+      </c>
+      <c r="D3437" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/002/61/071/261071_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3438">
+      <c r="A3438" s="1" t="n">
+        <v>3436</v>
+      </c>
+      <c r="B3438" t="n">
+        <v>106248</v>
+      </c>
+      <c r="C3438" t="inlineStr">
+        <is>
+          <t>브리즈</t>
+        </is>
+      </c>
+      <c r="D3438" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/001/06/248/106248_500.jpg/melon/resize/416/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E3438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3439">
+      <c r="A3439" s="1" t="n">
+        <v>3437</v>
+      </c>
+      <c r="B3439" t="n">
+        <v>13136</v>
+      </c>
+      <c r="C3439" t="inlineStr">
+        <is>
+          <t>노주환</t>
+        </is>
+      </c>
+      <c r="D3439" t="inlineStr">
+        <is>
+          <t>htt</t>
+        </is>
+      </c>
+      <c r="E3439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3440">
+      <c r="A3440" s="1" t="n">
+        <v>3438</v>
+      </c>
+      <c r="B3440" t="n">
+        <v>45886</v>
+      </c>
+      <c r="C3440" t="inlineStr">
+        <is>
+          <t>강불새</t>
+        </is>
+      </c>
+      <c r="D3440" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/000/45/886/45886_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" s="1" t="n">
+        <v>3439</v>
+      </c>
+      <c r="B3441" t="n">
+        <v>606967</v>
+      </c>
+      <c r="C3441" t="inlineStr">
+        <is>
+          <t>김동명</t>
+        </is>
+      </c>
+      <c r="D3441" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/006/06/967/606967_500.jpg/melon/resize/416/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E3441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3442">
+      <c r="A3442" s="1" t="n">
+        <v>3440</v>
+      </c>
+      <c r="B3442" t="n">
+        <v>60974</v>
+      </c>
+      <c r="C3442" t="inlineStr">
+        <is>
+          <t>김길중</t>
+        </is>
+      </c>
+      <c r="D3442" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/000/60/974/60974_20201117162832_500.jpg?e2c7d2ef72548b625d502795342f6241/melon/resize/416/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E3442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3443">
+      <c r="A3443" s="1" t="n">
+        <v>3441</v>
+      </c>
+      <c r="B3443" t="n">
+        <v>160141</v>
+      </c>
+      <c r="C3443" t="inlineStr">
+        <is>
+          <t>주니퍼</t>
+        </is>
+      </c>
+      <c r="D3443" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/001/60/141/160141_500.jpg/melon/resize/416/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E3443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3444">
+      <c r="A3444" s="1" t="n">
+        <v>3442</v>
+      </c>
+      <c r="B3444" t="n">
+        <v>100909</v>
+      </c>
+      <c r="C3444" t="inlineStr">
+        <is>
+          <t>Eagles</t>
+        </is>
+      </c>
+      <c r="D3444" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/001/00/909/100909_500.jpg/melon/resize/416/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E3444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3445">
+      <c r="A3445" s="1" t="n">
+        <v>3443</v>
+      </c>
+      <c r="B3445" t="n">
+        <v>20236</v>
+      </c>
+      <c r="C3445" t="inlineStr">
+        <is>
+          <t>Glenn Frey</t>
+        </is>
+      </c>
+      <c r="D3445" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/000/20/236/20236_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3445" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3446">
+      <c r="A3446" s="1" t="n">
+        <v>3444</v>
+      </c>
+      <c r="B3446" t="n">
+        <v>27281</v>
+      </c>
+      <c r="C3446" t="inlineStr">
+        <is>
+          <t>Don Henley</t>
+        </is>
+      </c>
+      <c r="D3446" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/000/27/281/27281_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3447">
+      <c r="A3447" s="1" t="n">
+        <v>3445</v>
+      </c>
+      <c r="B3447" t="n">
+        <v>48278</v>
+      </c>
+      <c r="C3447" t="inlineStr">
+        <is>
+          <t>Joe Walsh</t>
+        </is>
+      </c>
+      <c r="D3447" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/000/48/278/48278_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3448">
+      <c r="A3448" s="1" t="n">
+        <v>3446</v>
+      </c>
+      <c r="B3448" t="n">
+        <v>28330</v>
+      </c>
+      <c r="C3448" t="inlineStr">
+        <is>
+          <t>Timothy B. Schmit</t>
+        </is>
+      </c>
+      <c r="D3448" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/000/28/330/28330_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3449">
+      <c r="A3449" s="1" t="n">
+        <v>3447</v>
+      </c>
+      <c r="B3449" t="n">
+        <v>1461577</v>
+      </c>
+      <c r="C3449" t="inlineStr">
+        <is>
+          <t>T.P RETRO (타디스 프로젝트舊)</t>
+        </is>
+      </c>
+      <c r="D3449" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/014/61/577/1461577_500.jpg?38de4f51dc1d8963623315b24618e6eb/melon/resize/416/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E3449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3450">
+      <c r="A3450" s="1" t="n">
+        <v>3448</v>
+      </c>
+      <c r="B3450" t="n">
+        <v>1909866</v>
+      </c>
+      <c r="C3450" t="inlineStr">
+        <is>
+          <t>학선</t>
+        </is>
+      </c>
+      <c r="D3450" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/019/09/866/1909866_20220919102709_500.jpg?c1643b0df877f3e1cf07ba231d5c0d14/melon/resize/416/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E3450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3451">
+      <c r="A3451" s="1" t="n">
+        <v>3449</v>
+      </c>
+      <c r="B3451" t="n">
+        <v>947099</v>
+      </c>
+      <c r="C3451" t="inlineStr">
+        <is>
+          <t>안예은</t>
+        </is>
+      </c>
+      <c r="D3451" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/009/47/099/947099_20210730145045_500.jpg?a7d3377576e9a90d63c2b4f11991a121/melon/resize/416/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E3451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3452">
+      <c r="A3452" s="1" t="n">
+        <v>3450</v>
+      </c>
+      <c r="B3452" t="n">
+        <v>404720</v>
+      </c>
+      <c r="C3452" t="inlineStr">
+        <is>
+          <t>TMC</t>
+        </is>
+      </c>
+      <c r="D3452" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/004/04/720/404720_500.jpg/melon/resize/416/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E3452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3453">
+      <c r="A3453" s="1" t="n">
+        <v>3451</v>
+      </c>
+      <c r="B3453" t="n">
+        <v>47538</v>
+      </c>
+      <c r="C3453" t="inlineStr">
+        <is>
+          <t>이상열</t>
+        </is>
+      </c>
+      <c r="D3453" t="inlineStr">
+        <is>
+          <t>htt</t>
+        </is>
+      </c>
+      <c r="E3453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3454">
+      <c r="A3454" s="1" t="n">
+        <v>3452</v>
+      </c>
+      <c r="B3454" t="n">
+        <v>675032</v>
+      </c>
+      <c r="C3454" t="inlineStr">
+        <is>
+          <t>찬우</t>
+        </is>
+      </c>
+      <c r="D3454" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/006/75/032/675032_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3455">
+      <c r="A3455" s="1" t="n">
+        <v>3453</v>
+      </c>
+      <c r="B3455" t="n">
+        <v>676911</v>
+      </c>
+      <c r="C3455" t="inlineStr">
+        <is>
+          <t>권오건</t>
+        </is>
+      </c>
+      <c r="D3455" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/006/76/911/676911_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3456">
+      <c r="A3456" s="1" t="n">
+        <v>3454</v>
+      </c>
+      <c r="B3456" t="n">
+        <v>493280</v>
+      </c>
+      <c r="C3456" t="inlineStr">
+        <is>
+          <t>소란 (SORAN)</t>
+        </is>
+      </c>
+      <c r="D3456" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/004/93/280/493280_20210419144756_500.jpg?08841dc99b3e843c8fc3ca1712fd00b7/melon/resize/416/quality/80/optimize</t>
+        </is>
+      </c>
+      <c r="E3456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3457">
+      <c r="A3457" s="1" t="n">
+        <v>3455</v>
+      </c>
+      <c r="B3457" t="n">
+        <v>606302</v>
+      </c>
+      <c r="C3457" t="inlineStr">
+        <is>
+          <t>고영배</t>
+        </is>
+      </c>
+      <c r="D3457" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/006/06/302/606302_20210419144838_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3458">
+      <c r="A3458" s="1" t="n">
+        <v>3456</v>
+      </c>
+      <c r="B3458" t="n">
+        <v>673646</v>
+      </c>
+      <c r="C3458" t="inlineStr">
+        <is>
+          <t>서면호</t>
+        </is>
+      </c>
+      <c r="D3458" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/006/73/646/673646_20210419144915_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3459">
+      <c r="A3459" s="1" t="n">
+        <v>3457</v>
+      </c>
+      <c r="B3459" t="n">
+        <v>673649</v>
+      </c>
+      <c r="C3459" t="inlineStr">
+        <is>
+          <t>편유일</t>
+        </is>
+      </c>
+      <c r="D3459" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/006/73/649/673649_20210419144953_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3460">
+      <c r="A3460" s="1" t="n">
+        <v>3458</v>
+      </c>
+      <c r="B3460" t="n">
+        <v>636852</v>
+      </c>
+      <c r="C3460" t="inlineStr">
+        <is>
+          <t>이태욱</t>
+        </is>
+      </c>
+      <c r="D3460" t="inlineStr">
+        <is>
+          <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/006/36/852/636852_20210419145028_500.jpg</t>
+        </is>
+      </c>
+      <c r="E3460" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
